--- a/data_excel/642.xlsx
+++ b/data_excel/642.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>不夠</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -133,6 +130,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +507,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,7 +712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -722,20 +723,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
